--- a/medicine/Mort/Cimetière_de_Grinzing/Cimetière_de_Grinzing.xlsx
+++ b/medicine/Mort/Cimetière_de_Grinzing/Cimetière_de_Grinzing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Grinzing</t>
+          <t>Cimetière_de_Grinzing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Grinzing (en allemand : Grinzinger Friedhof est un cimetière situé à Grinzing, un quartier de Döbling, le dix-neuvième arrondissement de la ville de Vienne, en Autriche.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Grinzing</t>
+          <t>Cimetière_de_Grinzing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière, qui est situé dans le centre de Grinzing, occupe une superficie de 45 265 mètres carrés et comprend 5 095 tombes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Grinzing</t>
+          <t>Cimetière_de_Grinzing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originellement les morts du village de Grinzing étaient enterrés autour de l'église paroissiale de Saint-Michel jusqu'en 1713, année où se déclara une peste et où il fut décidé que les inhumations auront lieu à la chapelle de Grinzing. En 1783, un cimetière séparé est créé à Grinzing[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originellement les morts du village de Grinzing étaient enterrés autour de l'église paroissiale de Saint-Michel jusqu'en 1713, année où se déclara une peste et où il fut décidé que les inhumations auront lieu à la chapelle de Grinzing. En 1783, un cimetière séparé est créé à Grinzing.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Grinzing</t>
+          <t>Cimetière_de_Grinzing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +589,49 @@
           <t>Personnalités inhumées au cimetière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>De nombreuses personnalités ont choisi de se faire inhumer au cimetière de Grinzing, appartenant aussi bien au monde des arts, de la littérature, industriel ou politique. Si quarante-neuf tombes d'honneur sont implantées sur le site[2], bien d'autres personnalités y occupent une parcelle et nombre d’œuvres d'art surmontent les dalles funéraires.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses personnalités ont choisi de se faire inhumer au cimetière de Grinzing, appartenant aussi bien au monde des arts, de la littérature, industriel ou politique. Si quarante-neuf tombes d'honneur sont implantées sur le site, bien d'autres personnalités y occupent une parcelle et nombre d’œuvres d'art surmontent les dalles funéraires.
 Quelques-unes des personnalités inhumées au cimetière de Grinzing :
-Monde artistique
-Littérature
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Grinzing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Grinzing</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monde artistique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Littérature
 Thomas Bernhard, écrivain et dramaturge ;
 Heimito von Doderer, écrivain ;
 Gemma Salem, écrivain* Fritz Wöss, écrivain.
@@ -597,13 +650,115 @@
 Architecture
 Richard Jordan, architecte
 Divers
-Rudolf Leopold, collectionneur, fondateur du musée Leopold
-Monde de l'industrie
-Carlo Abarth, concepteur et préparateur de voitures de sport, fondateur de la marque qui porte son nom.
-Monde politique
-Josef Klaus, ministre des Finances et chancelier fédéral
-Liste plus complète
-Personnalités inhumées au cimetière de Grinzing</t>
+Rudolf Leopold, collectionneur, fondateur du musée Leopold</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Grinzing</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Grinzing</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Monde de l'industrie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Carlo Abarth, concepteur et préparateur de voitures de sport, fondateur de la marque qui porte son nom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Grinzing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Grinzing</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Monde politique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Josef Klaus, ministre des Finances et chancelier fédéral</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Grinzing</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Grinzing</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste plus complète</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière de Grinzing</t>
         </is>
       </c>
     </row>
